--- a/customStopwords.xlsx
+++ b/customStopwords.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mguYJQ7SoyV4mJLsik75mwxqn1JKQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgTD/k4fTGApb7oESdwC7UxlWT68Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>CustomStopWords</t>
   </si>
@@ -75,9 +75,6 @@
     <t>kompas</t>
   </si>
   <si>
-    <t xml:space="preserve">rp </t>
-  </si>
-  <si>
     <t>marjudin</t>
   </si>
   <si>
@@ -160,6 +157,30 @@
   </si>
   <si>
     <t>logammulia</t>
+  </si>
+  <si>
+    <t>komisaris</t>
+  </si>
+  <si>
+    <t>direktur</t>
+  </si>
+  <si>
+    <t>pernah</t>
+  </si>
+  <si>
+    <t>akan</t>
+  </si>
+  <si>
+    <t>mungkin</t>
+  </si>
+  <si>
+    <t>usah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">di </t>
+  </si>
+  <si>
+    <t xml:space="preserve">terasa </t>
   </si>
 </sst>
 </file>
@@ -551,17 +572,17 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -612,12 +633,12 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -667,12 +688,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -680,14 +701,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1"/>
@@ -1629,7 +1682,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
